--- a/biology/Botanique/Solanum_verrucosum/Solanum_verrucosum.xlsx
+++ b/biology/Botanique/Solanum_verrucosum/Solanum_verrucosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum verrucosum est une espèce de plante herbacée tubéreuse de la famille des Solanaceae, originaire du Mexique. Elle est apparentée à la pomme de terre cultivée, mais contrairement à celle-ci, elle est diploïde (2n = 2x = 24).
-Cette espèce dont le nombre d'équilibre de l'endosperme (EBN) est égal à 2 peut servir d'intermédiaire, en créant des hybrides sexuellement compatibles, pour introduire des gènes d'intérêt (résistance à des maladies ou à des ravageurs, qualité des tubercules) provenant d'espèces diploïdes de pommes de terre sauvages dont l'EBN est égal à 1 dans le génome de la pomme de terre cultivée (EBN=4) ou de dérivés haploïdes (EBN=2)[1].
+Cette espèce dont le nombre d'équilibre de l'endosperme (EBN) est égal à 2 peut servir d'intermédiaire, en créant des hybrides sexuellement compatibles, pour introduire des gènes d'intérêt (résistance à des maladies ou à des ravageurs, qualité des tubercules) provenant d'espèces diploïdes de pommes de terre sauvages dont l'EBN est égal à 1 dans le génome de la pomme de terre cultivée (EBN=4) ou de dérivés haploïdes (EBN=2).
 Synonymes :
 Solanum squamulosum M.Martens &amp; Galeotti
 Solanum macropilosum Correll
@@ -515,13 +527,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum verrucosum est une plante herbacée tubéreuse pouvant atteindre 50 cm de haut.
 Les feuilles sont assez grandes, mesurent de 10 à 20 cm de long et de 6 à 15 cm de large. Elles sont composées imparipennées et comptent de 1 à 4 paires de folioles latérales et une foliole terminale nettement plus grande que les autres (jusqu'à 8,5 cm de long). Ces folioles sont de forme ovale à elliptique.
 Les fleurs ont une corolle pentamère, arrondie à pentagonale, de 2 à 3 cm de diamètre, de couleur pourpre bleuâtre au-dessus et violet foncé au-dessous.
 Elles sont groupées en inflorescences cymeuses comptant jusqu'à une dizaine de fleurs.
-Les fruits sont de petites baies globuleuses de 1 à 1,5 cm de diamètre, de couleur verte parfois tachetées de blanc. Ils contiennent de nombreuses graines ovoïdes de 2 mm de long environ[2].
+Les fruits sont de petites baies globuleuses de 1 à 1,5 cm de diamètre, de couleur verte parfois tachetées de blanc. Ils contiennent de nombreuses graines ovoïdes de 2 mm de long environ.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum verrucosum se rencontre dans une grande partie du Mexique entre 2000 et 3500 mètres d'altitude.
 </t>
